--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lta-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H2">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I2">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J2">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N2">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O2">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P2">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q2">
-        <v>6.895506293093001</v>
+        <v>0.28665292330575</v>
       </c>
       <c r="R2">
-        <v>27.582025172372</v>
+        <v>1.146611693223</v>
       </c>
       <c r="S2">
-        <v>0.100875917523431</v>
+        <v>0.0009427147077725343</v>
       </c>
       <c r="T2">
-        <v>0.06131365855115026</v>
+        <v>0.0004622674200935032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H3">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I3">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J3">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>43.682362</v>
       </c>
       <c r="O3">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P3">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q3">
-        <v>7.455931238363666</v>
+        <v>0.3769860644536666</v>
       </c>
       <c r="R3">
-        <v>44.735587430182</v>
+        <v>2.261916386722</v>
       </c>
       <c r="S3">
-        <v>0.1090745005069349</v>
+        <v>0.001239793069218727</v>
       </c>
       <c r="T3">
-        <v>0.09944529147652227</v>
+        <v>0.0009119131251994312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H4">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I4">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J4">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N4">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O4">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P4">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q4">
-        <v>6.851869947493999</v>
+        <v>0.4263661779775</v>
       </c>
       <c r="R4">
-        <v>41.111219684964</v>
+        <v>2.558197067865</v>
       </c>
       <c r="S4">
-        <v>0.1002375515771801</v>
+        <v>0.001402189317453539</v>
       </c>
       <c r="T4">
-        <v>0.09138847748243266</v>
+        <v>0.001031361502453058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H5">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I5">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J5">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N5">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O5">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P5">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q5">
-        <v>4.58068464524</v>
+        <v>0.25112098233925</v>
       </c>
       <c r="R5">
-        <v>18.32273858096</v>
+        <v>1.004483929357</v>
       </c>
       <c r="S5">
-        <v>0.06701186930058026</v>
+        <v>0.0008258609078582143</v>
       </c>
       <c r="T5">
-        <v>0.04073066172821404</v>
+        <v>0.0004049672590064345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H6">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I6">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J6">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N6">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O6">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P6">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q6">
-        <v>4.878319635577667</v>
+        <v>0.3731796949246667</v>
       </c>
       <c r="R6">
-        <v>29.269917813466</v>
+        <v>2.239078169548</v>
       </c>
       <c r="S6">
-        <v>0.07136603873516753</v>
+        <v>0.001227275071855141</v>
       </c>
       <c r="T6">
-        <v>0.0650657714732536</v>
+        <v>0.0009027056805213777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.5120555</v>
+        <v>0.0258905</v>
       </c>
       <c r="H7">
-        <v>1.024111</v>
+        <v>0.051781</v>
       </c>
       <c r="I7">
-        <v>0.565332323990843</v>
+        <v>0.006696262881565167</v>
       </c>
       <c r="J7">
-        <v>0.4644020451427859</v>
+        <v>0.004491728803361671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N7">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O7">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P7">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q7">
-        <v>7.981724334002833</v>
+        <v>0.3218386176705</v>
       </c>
       <c r="R7">
-        <v>47.890346004017</v>
+        <v>1.931031706023</v>
       </c>
       <c r="S7">
-        <v>0.1167664463475492</v>
+        <v>0.001058429807407011</v>
       </c>
       <c r="T7">
-        <v>0.1064581844312131</v>
+        <v>0.0007785138160878668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H8">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I8">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J8">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N8">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O8">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P8">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q8">
-        <v>3.024195672674667</v>
+        <v>0.50113469964375</v>
       </c>
       <c r="R8">
-        <v>18.145174036048</v>
+        <v>2.004538798575</v>
       </c>
       <c r="S8">
-        <v>0.04424164090126689</v>
+        <v>0.001648080356136588</v>
       </c>
       <c r="T8">
-        <v>0.04033594336328304</v>
+        <v>0.0008081489002523005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H9">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I9">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J9">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>43.682362</v>
       </c>
       <c r="O9">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P9">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q9">
-        <v>3.269983961787555</v>
+        <v>0.6590576366749999</v>
       </c>
       <c r="R9">
-        <v>29.429855656088</v>
+        <v>3.954345820049999</v>
       </c>
       <c r="S9">
-        <v>0.04783733324449807</v>
+        <v>0.002167441099844059</v>
       </c>
       <c r="T9">
-        <v>0.06542130643526775</v>
+        <v>0.001594232163509367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H10">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I10">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J10">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N10">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O10">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P10">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q10">
-        <v>3.005057868730666</v>
+        <v>0.7453853394375</v>
       </c>
       <c r="R10">
-        <v>27.045520818576</v>
+        <v>4.472312036625</v>
       </c>
       <c r="S10">
-        <v>0.04396166964895024</v>
+        <v>0.002451346786707124</v>
       </c>
       <c r="T10">
-        <v>0.06012103239138576</v>
+        <v>0.001803055174862653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H11">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I11">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J11">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N11">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O11">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P11">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q11">
-        <v>2.008973104106667</v>
+        <v>0.43901676148125</v>
       </c>
       <c r="R11">
-        <v>12.05383862464</v>
+        <v>1.756067045925</v>
       </c>
       <c r="S11">
-        <v>0.0293897208620707</v>
+        <v>0.001443793257833276</v>
       </c>
       <c r="T11">
-        <v>0.02679516609252247</v>
+        <v>0.0007079751476711048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H12">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I12">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J12">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N12">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O12">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P12">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q12">
-        <v>2.139508326838222</v>
+        <v>0.65240323445</v>
       </c>
       <c r="R12">
-        <v>19.255574941544</v>
+        <v>3.9144194067</v>
       </c>
       <c r="S12">
-        <v>0.03129935009050908</v>
+        <v>0.002145556784915059</v>
       </c>
       <c r="T12">
-        <v>0.04280431693444003</v>
+        <v>0.001578135449859943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2245746666666667</v>
+        <v>0.0452625</v>
       </c>
       <c r="H13">
-        <v>0.673724</v>
+        <v>0.09052499999999999</v>
       </c>
       <c r="I13">
-        <v>0.2479405420235415</v>
+        <v>0.01170659503203273</v>
       </c>
       <c r="J13">
-        <v>0.3055125894183133</v>
+        <v>0.007852566577013099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.58761566666667</v>
+        <v>12.430761</v>
       </c>
       <c r="N13">
-        <v>46.762847</v>
+        <v>37.292283</v>
       </c>
       <c r="O13">
-        <v>0.2065447903690724</v>
+        <v>0.1580627621894702</v>
       </c>
       <c r="P13">
-        <v>0.2292371137135739</v>
+        <v>0.1733216429952798</v>
       </c>
       <c r="Q13">
-        <v>3.500583592469778</v>
+        <v>0.5626473197624999</v>
       </c>
       <c r="R13">
-        <v>31.505252332228</v>
+        <v>3.375883918575</v>
       </c>
       <c r="S13">
-        <v>0.05121082727624658</v>
+        <v>0.001850376746596622</v>
       </c>
       <c r="T13">
-        <v>0.07003482420141433</v>
+        <v>0.00136101974085773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H14">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I14">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J14">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.466326</v>
+        <v>11.0717415</v>
       </c>
       <c r="N14">
-        <v>26.932652</v>
+        <v>22.143483</v>
       </c>
       <c r="O14">
-        <v>0.178436493443925</v>
+        <v>0.1407822130710894</v>
       </c>
       <c r="P14">
-        <v>0.1320271070991917</v>
+        <v>0.1029152560919386</v>
       </c>
       <c r="Q14">
-        <v>2.27755971638</v>
+        <v>41.44218904840949</v>
       </c>
       <c r="R14">
-        <v>13.66535829828</v>
+        <v>248.653134290457</v>
       </c>
       <c r="S14">
-        <v>0.03331893501922717</v>
+        <v>0.136290817088771</v>
       </c>
       <c r="T14">
-        <v>0.03037750518475842</v>
+        <v>0.100246878316335</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H15">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I15">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J15">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>43.682362</v>
       </c>
       <c r="O15">
-        <v>0.1929387298022281</v>
+        <v>0.1851470127661626</v>
       </c>
       <c r="P15">
-        <v>0.2141362048609124</v>
+        <v>0.2030205217458683</v>
       </c>
       <c r="Q15">
-        <v>2.462665961686667</v>
+        <v>54.50189578231087</v>
       </c>
       <c r="R15">
-        <v>22.16399365518</v>
+        <v>490.5170620407979</v>
       </c>
       <c r="S15">
-        <v>0.03602689605079509</v>
+        <v>0.1792402399492281</v>
       </c>
       <c r="T15">
-        <v>0.04926960694912234</v>
+        <v>0.1977566233814299</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H16">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I16">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J16">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.381108</v>
+        <v>16.468055</v>
       </c>
       <c r="N16">
-        <v>40.143324</v>
+        <v>49.404165</v>
       </c>
       <c r="O16">
-        <v>0.1773073063814475</v>
+        <v>0.2093987858979925</v>
       </c>
       <c r="P16">
-        <v>0.1967874139191919</v>
+        <v>0.2296134846077913</v>
       </c>
       <c r="Q16">
-        <v>2.26314679604</v>
+        <v>61.64091245894832</v>
       </c>
       <c r="R16">
-        <v>20.36832116436</v>
+        <v>554.7682121305349</v>
       </c>
       <c r="S16">
-        <v>0.03310808515531711</v>
+        <v>0.2027183051386108</v>
       </c>
       <c r="T16">
-        <v>0.0452779040453735</v>
+        <v>0.2236600862237949</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H17">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I17">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J17">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.945679999999999</v>
+        <v>9.699348499999999</v>
       </c>
       <c r="N17">
-        <v>17.89136</v>
+        <v>19.398697</v>
       </c>
       <c r="O17">
-        <v>0.1185353578007432</v>
+        <v>0.1233316138366987</v>
       </c>
       <c r="P17">
-        <v>0.08770560369881859</v>
+        <v>0.09015843937491316</v>
       </c>
       <c r="Q17">
-        <v>1.5129828584</v>
+        <v>36.30524016329382</v>
       </c>
       <c r="R17">
-        <v>9.0778971504</v>
+        <v>217.831440979763</v>
       </c>
       <c r="S17">
-        <v>0.02213376763809223</v>
+        <v>0.1193969469295996</v>
       </c>
       <c r="T17">
-        <v>0.02017977587808208</v>
+        <v>0.08782081922949758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.16913</v>
+        <v>3.743059666666666</v>
       </c>
       <c r="H18">
-        <v>0.50739</v>
+        <v>11.229179</v>
       </c>
       <c r="I18">
-        <v>0.1867271339856154</v>
+        <v>0.9680968505584552</v>
       </c>
       <c r="J18">
-        <v>0.2300853654389008</v>
+        <v>0.9740720872985071</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.526935333333334</v>
+        <v>14.41376933333333</v>
       </c>
       <c r="N18">
-        <v>28.580806</v>
+        <v>43.241308</v>
       </c>
       <c r="O18">
-        <v>0.1262373222025838</v>
+        <v>0.1832776122385866</v>
       </c>
       <c r="P18">
-        <v>0.1401065567083116</v>
+        <v>0.2009706551842089</v>
       </c>
       <c r="Q18">
-        <v>1.611290572926667</v>
+        <v>53.95159863623688</v>
       </c>
       <c r="R18">
-        <v>14.50161515634</v>
+        <v>485.564387726132</v>
       </c>
       <c r="S18">
-        <v>0.02357193337690716</v>
+        <v>0.1774304791860495</v>
       </c>
       <c r="T18">
-        <v>0.03223646830061794</v>
+        <v>0.1957599055810309</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.743059666666666</v>
+      </c>
+      <c r="H19">
+        <v>11.229179</v>
+      </c>
+      <c r="I19">
+        <v>0.9680968505584552</v>
+      </c>
+      <c r="J19">
+        <v>0.9740720872985071</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.430761</v>
+      </c>
+      <c r="N19">
+        <v>37.292283</v>
+      </c>
+      <c r="O19">
+        <v>0.1580627621894702</v>
+      </c>
+      <c r="P19">
+        <v>0.1733216429952798</v>
+      </c>
+      <c r="Q19">
+        <v>46.52908012507299</v>
+      </c>
+      <c r="R19">
+        <v>418.7617211256569</v>
+      </c>
+      <c r="S19">
+        <v>0.1530200622661961</v>
+      </c>
+      <c r="T19">
+        <v>0.1688277745664188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.156593</v>
+      </c>
+      <c r="I20">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J20">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.0717415</v>
+      </c>
+      <c r="N20">
+        <v>22.143483</v>
+      </c>
+      <c r="O20">
+        <v>0.1407822130710894</v>
+      </c>
+      <c r="P20">
+        <v>0.1029152560919386</v>
+      </c>
+      <c r="Q20">
+        <v>0.5779190722365001</v>
+      </c>
+      <c r="R20">
+        <v>3.467514433419</v>
+      </c>
+      <c r="S20">
+        <v>0.001900600918409255</v>
+      </c>
+      <c r="T20">
+        <v>0.001397961455257758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.156593</v>
+      </c>
+      <c r="I21">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J21">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.56078733333333</v>
+      </c>
+      <c r="N21">
+        <v>43.682362</v>
+      </c>
+      <c r="O21">
+        <v>0.1851470127661626</v>
+      </c>
+      <c r="P21">
+        <v>0.2030205217458683</v>
+      </c>
+      <c r="Q21">
+        <v>0.7600391236295555</v>
+      </c>
+      <c r="R21">
+        <v>6.840352112666</v>
+      </c>
+      <c r="S21">
+        <v>0.002499538647871718</v>
+      </c>
+      <c r="T21">
+        <v>0.002757753075729602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.156593</v>
+      </c>
+      <c r="I22">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J22">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.468055</v>
+      </c>
+      <c r="N22">
+        <v>49.404165</v>
+      </c>
+      <c r="O22">
+        <v>0.2093987858979925</v>
+      </c>
+      <c r="P22">
+        <v>0.2296134846077913</v>
+      </c>
+      <c r="Q22">
+        <v>0.8595940455383334</v>
+      </c>
+      <c r="R22">
+        <v>7.736346409845001</v>
+      </c>
+      <c r="S22">
+        <v>0.002826944655221053</v>
+      </c>
+      <c r="T22">
+        <v>0.003118981706680668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.156593</v>
+      </c>
+      <c r="I23">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J23">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.699348499999999</v>
+      </c>
+      <c r="N23">
+        <v>19.398697</v>
+      </c>
+      <c r="O23">
+        <v>0.1233316138366987</v>
+      </c>
+      <c r="P23">
+        <v>0.09015843937491316</v>
+      </c>
+      <c r="Q23">
+        <v>0.5062833598868334</v>
+      </c>
+      <c r="R23">
+        <v>3.037700159321</v>
+      </c>
+      <c r="S23">
+        <v>0.001665012741407612</v>
+      </c>
+      <c r="T23">
+        <v>0.001224677738738043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.16913</v>
-      </c>
-      <c r="H19">
-        <v>0.50739</v>
-      </c>
-      <c r="I19">
-        <v>0.1867271339856154</v>
-      </c>
-      <c r="J19">
-        <v>0.2300853654389008</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>15.58761566666667</v>
-      </c>
-      <c r="N19">
-        <v>46.762847</v>
-      </c>
-      <c r="O19">
-        <v>0.2065447903690724</v>
-      </c>
-      <c r="P19">
-        <v>0.2292371137135739</v>
-      </c>
-      <c r="Q19">
-        <v>2.636333437703333</v>
-      </c>
-      <c r="R19">
-        <v>23.72700093933</v>
-      </c>
-      <c r="S19">
-        <v>0.03856751674527663</v>
-      </c>
-      <c r="T19">
-        <v>0.05274410508094652</v>
+      <c r="G24">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.156593</v>
+      </c>
+      <c r="I24">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J24">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.41376933333333</v>
+      </c>
+      <c r="N24">
+        <v>43.241308</v>
+      </c>
+      <c r="O24">
+        <v>0.1832776122385866</v>
+      </c>
+      <c r="P24">
+        <v>0.2009706551842089</v>
+      </c>
+      <c r="Q24">
+        <v>0.7523651270715557</v>
+      </c>
+      <c r="R24">
+        <v>6.771286143644001</v>
+      </c>
+      <c r="S24">
+        <v>0.002474301195766943</v>
+      </c>
+      <c r="T24">
+        <v>0.002729908472796665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.05219766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.156593</v>
+      </c>
+      <c r="I25">
+        <v>0.01350029152794699</v>
+      </c>
+      <c r="J25">
+        <v>0.01358361732111806</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.430761</v>
+      </c>
+      <c r="N25">
+        <v>37.292283</v>
+      </c>
+      <c r="O25">
+        <v>0.1580627621894702</v>
+      </c>
+      <c r="P25">
+        <v>0.1733216429952798</v>
+      </c>
+      <c r="Q25">
+        <v>0.648856719091</v>
+      </c>
+      <c r="R25">
+        <v>5.839710471819</v>
+      </c>
+      <c r="S25">
+        <v>0.002133893369270403</v>
+      </c>
+      <c r="T25">
+        <v>0.002354334871915323</v>
       </c>
     </row>
   </sheetData>
